--- a/spreadsheet/macrofree/resiliency_checklist.en.xlsx
+++ b/spreadsheet/macrofree/resiliency_checklist.en.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -6972,20 +6937,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6995,121 +7058,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
